--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>Salmones Maullín Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Salmones Maullín Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F193" t="n">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/05/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/05/2022</t>
+          <t>14/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Salmones Maullín Ltda.</t>
+          <t>AquaChile Maullín Limitada</t>
         </is>
       </c>
       <c r="F245" t="n">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/06/2022</t>
+          <t>27/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>95</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -13203,7 +13203,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/09/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Biodos Chile SpA</t>
+          <t>REMAP SpA</t>
         </is>
       </c>
       <c r="F173" t="n">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?PISCICULTURA ENSENADA?</t>
+          <t>Piscicultura Ensenada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
+          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
+          <t>METROHOLD S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
+          <t>Regularización Piscicultura Río Las Marcas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Alberto Schirmer Roth</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>95</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Micro Central Hidroeléctrica de Autoconsumo en Playa Bonita</t>
+          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>METROHOLD S. A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>38</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128981050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Río Las Marcas</t>
+          <t>PARQUE EMPRESARIAL PUERTO VARAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>INMOBILIARIA Y AGROINDUSTRIAL DEL LAGO LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128965491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN CENTRO DE CULTIVO DE SALMONES RALUN DEL ESTE, COMUNA DE PUERTO VARAS, PROVINCIA DE LLANQUIHUE, DÉCIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 213101029"</t>
+          <t>NAVEGACIÓN Y TRANSPORTE DE PASAJEROS PETROHUE - PEULLA. CATAMARÁN "LAGO TODOS LOS SANTOS"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Alberto Schirmer Roth</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128966205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
+          <t>Subestación Reductora Crell</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Feria de Ganaderos de Osorno S.A.</t>
+          <t>Austrum Energía SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Subestación Reductora Crell</t>
+          <t>MODIFICACIÓN DISPOSICIÓN FINAL DE RILes, RECINTO DE REMATES FEGOSA S.A. PUERTO VARAS. DÉCIMA REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Austrum Energía SpA</t>
+          <t>Feria de Ganaderos de Osorno S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7771036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Puerto Varas.xlsx
+++ b/data/Puerto Varas.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Rigi Limitada</t>
+          <t>COMERCIAL E INVERSIONES PIN SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rudi Roth Grob</t>
+          <t>COMERCIAL E INVERSIONES PIN SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
